--- a/MEAN_Stack_Project.xlsx
+++ b/MEAN_Stack_Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\NodeJS_Project\NodeJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F685F820-5DF8-48A8-8BEB-6E64F3368149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681B509B-0A72-4BA8-BA36-0F7F023E7696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F93A5F97-2A38-4679-A0A0-CA4891DB7693}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F93A5F97-2A38-4679-A0A0-CA4891DB7693}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="3" r:id="rId1"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B315B38-E621-45F1-869D-B06A66564274}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6127CE1-1D5D-4763-84D1-FD9AE7FC041C}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
